--- a/Supplementary_files/AF_6_biomass_composition.xlsx
+++ b/Supplementary_files/AF_6_biomass_composition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenvanheck/Dropbox/PhD_WUR/Projects/2016_11_20_Cryptococcus/Matlab/2017_11_15_Start_Over/Final_functions/Validation/Biomass/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhung\Dropbox\PhD_WUR\Projects\2016_11_20_Cryptococcus\submit\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6160DAB-4D30-8247-A7FC-E5A3739AD643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FF0652-F90B-443F-8CD0-950F51A977D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1140" windowWidth="18810" windowHeight="11700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNA and RNA" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="Biomass reactions" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,9 +34,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>In Nitrogen abundant condition</t>
-  </si>
-  <si>
-    <t>In Nitrogen deletion condition</t>
   </si>
   <si>
     <t>Biomass component</t>
@@ -617,14 +622,24 @@
       <t xml:space="preserve"> genome</t>
     </r>
   </si>
+  <si>
+    <t>In Nitrogen depletion condition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1132,93 +1147,93 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1586,36 +1601,36 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="16384" width="10.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="15">
         <v>20.295000000000002</v>
@@ -1624,9 +1639,9 @@
         <v>331.22500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="15">
         <v>20.295000000000002</v>
@@ -1635,9 +1650,9 @@
         <v>322.20999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="15">
         <v>29.704999999999998</v>
@@ -1646,9 +1661,9 @@
         <v>307.19900000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="15">
         <v>29.704999999999998</v>
@@ -1657,44 +1672,44 @@
         <v>347.22399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="H12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="B13" s="15">
         <v>26.2</v>
@@ -1703,9 +1718,9 @@
         <v>347.22399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15">
         <v>21.6</v>
@@ -1714,9 +1729,9 @@
         <v>324.18200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="15">
         <v>20</v>
@@ -1725,9 +1740,9 @@
         <v>323.19799999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="15">
         <v>32.200000000000003</v>
@@ -1736,64 +1751,64 @@
         <v>363.22300000000001</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="H19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="19" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="19" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H22" s="12"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H24" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="I24" s="17"/>
     </row>
@@ -1813,40 +1828,40 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="6"/>
-    <col min="4" max="4" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="29.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="6"/>
+    <col min="4" max="4" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="B4" s="9">
         <v>90</v>
@@ -1859,9 +1874,9 @@
         <v>2.2550739163117011</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9">
         <v>7</v>
@@ -1874,9 +1889,9 @@
         <v>0.14137130162577</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9">
         <v>3</v>
@@ -1889,9 +1904,9 @@
         <v>5.6478030046311987E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
@@ -1899,44 +1914,44 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="G12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="B13" s="9">
         <v>19.7</v>
@@ -1963,9 +1978,9 @@
         <v>0.24952191600892687</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9">
         <v>18.2</v>
@@ -1992,9 +2007,9 @@
         <v>9.6711611776379547E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9">
         <v>48.8</v>
@@ -2021,9 +2036,9 @@
         <v>0.5523330742858914</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="9">
         <v>13.3</v>
@@ -2050,29 +2065,29 @@
         <v>6.7963144557608463E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2090,32 +2105,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>89.1</v>
@@ -2132,9 +2147,9 @@
         <v>8.8407192446542631</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>174.2</v>
@@ -2151,9 +2166,9 @@
         <v>6.5693862815884465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>132.1</v>
@@ -2170,9 +2185,9 @@
         <v>6.2913496251041376</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>133.1</v>
@@ -2189,9 +2204,9 @@
         <v>6.3389752846431549</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>121.2</v>
@@ -2208,9 +2223,9 @@
         <v>1.4438989169675092</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>146.1</v>
@@ -2227,9 +2242,9 @@
         <v>10.873312968619828</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>147.1</v>
@@ -2246,9 +2261,9 @@
         <v>10.947736739794502</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>75.099999999999994</v>
@@ -2265,9 +2280,9 @@
         <v>2.085531796723132E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>75.099999999999994</v>
@@ -2284,9 +2299,9 @@
         <v>6.7821494029436256</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>155.19999999999999</v>
@@ -2303,9 +2318,9 @@
         <v>3.2324354346014994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>131.19999999999999</v>
@@ -2322,9 +2337,9 @@
         <v>9.1122243821160769</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>146.19999999999999</v>
@@ -2341,9 +2356,9 @@
         <v>9.7196001110802559</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>149.19999999999999</v>
@@ -2360,9 +2375,9 @@
         <v>2.0716467647875589</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>165.2</v>
@@ -2379,9 +2394,9 @@
         <v>5.2436434323798942</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>115.1</v>
@@ -2398,9 +2413,9 @@
         <v>4.1104859761177446</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>105.1</v>
@@ -2417,9 +2432,9 @@
         <v>7.4045737295195764</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>119.1</v>
@@ -2436,9 +2451,9 @@
         <v>6.4990697028603162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>181.2</v>
@@ -2455,9 +2470,9 @@
         <v>4.8558178283810047</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>117.1</v>
@@ -2474,9 +2489,9 @@
         <v>8.3670730352679801</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>131.19999999999999</v>
@@ -2493,9 +2508,9 @@
         <v>6.2484865315190223</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>204.2</v>
@@ -2512,13 +2527,13 @@
         <v>1.5877811718966954</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <f xml:space="preserve"> SUM(C2:C22)</f>
         <v>3.601100999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <f xml:space="preserve"> SUM(E2:E22)</f>
@@ -2534,53 +2549,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>38</v>
@@ -2593,7 +2608,7 @@
         <v>3.0158730158730158</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2606,9 +2621,9 @@
         <v>1.5873015873015872</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -2621,22 +2636,22 @@
         <v>0.4630214252641327</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>475.14</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J7" si="1" xml:space="preserve"> (H4/I4)*10</f>
-        <v>1.2627857052658165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.3469714189502042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -2649,7 +2664,7 @@
         <v>9.1771183848271647E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>0.3</v>
@@ -2662,9 +2677,9 @@
         <v>9.1771183848271647E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2.7</v>
@@ -2677,7 +2692,7 @@
         <v>7.8811407221460059E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>2.7</v>
@@ -2690,9 +2705,9 @@
         <v>7.8811407221460059E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -2705,7 +2720,7 @@
         <v>0.23195524628189385</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -2718,9 +2733,9 @@
         <v>7.5044344385318595E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>59.276000000000003</v>
